--- a/TDataIn.xlsx
+++ b/TDataIn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADITYA\GithubDesktop\CP302\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFA6C6E-A42B-4373-9484-C631B522529C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D0D7C8-C6A2-4CFE-B07E-152579E989E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,8 +454,8 @@
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N81" sqref="N81:N114"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53:I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2382,174 +2382,106 @@
       </c>
     </row>
     <row r="81" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N81" s="3">
-        <v>66</v>
-      </c>
+      <c r="N81" s="3"/>
     </row>
     <row r="82" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N82" s="3">
-        <v>67</v>
-      </c>
+      <c r="N82" s="3"/>
     </row>
     <row r="83" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N83" s="3">
-        <v>68</v>
-      </c>
+      <c r="N83" s="3"/>
     </row>
     <row r="84" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N84" s="3">
-        <v>69</v>
-      </c>
+      <c r="N84" s="3"/>
     </row>
     <row r="85" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N85" s="3">
-        <v>70</v>
-      </c>
+      <c r="N85" s="3"/>
     </row>
     <row r="86" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N86" s="3">
-        <v>71</v>
-      </c>
+      <c r="N86" s="3"/>
     </row>
     <row r="87" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N87" s="3">
-        <v>72</v>
-      </c>
+      <c r="N87" s="3"/>
     </row>
     <row r="88" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N88" s="3">
-        <v>73</v>
-      </c>
+      <c r="N88" s="3"/>
     </row>
     <row r="89" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N89" s="3">
-        <v>74</v>
-      </c>
+      <c r="N89" s="3"/>
     </row>
     <row r="90" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N90" s="3">
-        <v>75</v>
-      </c>
+      <c r="N90" s="3"/>
     </row>
     <row r="91" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N91" s="3">
-        <v>76</v>
-      </c>
+      <c r="N91" s="3"/>
     </row>
     <row r="92" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N92" s="3">
-        <v>77</v>
-      </c>
+      <c r="N92" s="3"/>
     </row>
     <row r="93" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N93" s="3">
-        <v>78</v>
-      </c>
+      <c r="N93" s="3"/>
     </row>
     <row r="94" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N94" s="3">
-        <v>79</v>
-      </c>
+      <c r="N94" s="3"/>
     </row>
     <row r="95" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N95" s="3">
-        <v>80</v>
-      </c>
+      <c r="N95" s="3"/>
     </row>
     <row r="96" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N96" s="3">
-        <v>81</v>
-      </c>
+      <c r="N96" s="3"/>
     </row>
     <row r="97" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N97" s="3">
-        <v>82</v>
-      </c>
+      <c r="N97" s="3"/>
     </row>
     <row r="98" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N98" s="3">
-        <v>83</v>
-      </c>
+      <c r="N98" s="3"/>
     </row>
     <row r="99" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N99" s="3">
-        <v>84</v>
-      </c>
+      <c r="N99" s="3"/>
     </row>
     <row r="100" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N100" s="3">
-        <v>85</v>
-      </c>
+      <c r="N100" s="3"/>
     </row>
     <row r="101" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N101" s="3">
-        <v>86</v>
-      </c>
+      <c r="N101" s="3"/>
     </row>
     <row r="102" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N102" s="3">
-        <v>87</v>
-      </c>
+      <c r="N102" s="3"/>
     </row>
     <row r="103" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N103" s="3">
-        <v>88</v>
-      </c>
+      <c r="N103" s="3"/>
     </row>
     <row r="104" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N104" s="3">
-        <v>89</v>
-      </c>
+      <c r="N104" s="3"/>
     </row>
     <row r="105" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N105" s="3">
-        <v>90</v>
-      </c>
+      <c r="N105" s="3"/>
     </row>
     <row r="106" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N106" s="3">
-        <v>91</v>
-      </c>
+      <c r="N106" s="3"/>
     </row>
     <row r="107" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N107" s="3">
-        <v>92</v>
-      </c>
+      <c r="N107" s="3"/>
     </row>
     <row r="108" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N108" s="3">
-        <v>93</v>
-      </c>
+      <c r="N108" s="3"/>
     </row>
     <row r="109" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N109" s="3">
-        <v>94</v>
-      </c>
+      <c r="N109" s="3"/>
     </row>
     <row r="110" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N110" s="3">
-        <v>95</v>
-      </c>
+      <c r="N110" s="3"/>
     </row>
     <row r="111" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N111" s="3">
-        <v>96</v>
-      </c>
+      <c r="N111" s="3"/>
     </row>
     <row r="112" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N112" s="3">
-        <v>97</v>
-      </c>
+      <c r="N112" s="3"/>
     </row>
     <row r="113" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N113" s="3">
-        <v>98</v>
-      </c>
+      <c r="N113" s="3"/>
     </row>
     <row r="114" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N114" s="3">
-        <v>99</v>
-      </c>
+      <c r="N114" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/TDataIn.xlsx
+++ b/TDataIn.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADITYA\GithubDesktop\CP302\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D0D7C8-C6A2-4CFE-B07E-152579E989E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C91598A-E151-4794-9557-C855F10D97AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$114</definedName>
+  </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -454,8 +457,8 @@
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53:I54"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2484,6 +2487,7 @@
       <c r="N114" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="H1:H114" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
